--- a/Designs/Electronics/GPIOs data.xlsx
+++ b/Designs/Electronics/GPIOs data.xlsx
@@ -1254,16 +1254,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1395,7 +1395,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2026,8 +2026,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2078,17 +2078,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="13" t="n">
-        <f aca="false">(3.3/5540)*1000</f>
-        <v>0.595667870036101</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -2101,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -2115,9 +2105,16 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="14" t="n">
+        <f aca="false">(3.3/5540)*1000</f>
+        <v>0.595667870036101</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>110</v>
       </c>
@@ -2131,10 +2128,10 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -2145,10 +2142,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2159,24 +2156,24 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="2" t="s">
         <v>111</v>
       </c>
@@ -2192,9 +2189,9 @@
         <v>42</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="2" t="s">
         <v>112</v>
       </c>
@@ -2210,9 +2207,9 @@
         <v>46</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="2" t="s">
         <v>113</v>
       </c>
@@ -2228,9 +2225,9 @@
         <v>50</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="2" t="s">
         <v>114</v>
       </c>
@@ -2246,9 +2243,9 @@
         <v>54</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2262,20 +2259,20 @@
         <v>58</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -2288,9 +2285,9 @@
         <v>61</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2304,9 +2301,9 @@
         <v>64</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="2" t="s">
         <v>115</v>
       </c>
@@ -2324,9 +2321,9 @@
       <c r="D17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2" t="s">
         <v>116</v>
       </c>
@@ -2344,9 +2341,9 @@
       <c r="D18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="2" t="s">
         <v>117</v>
       </c>
@@ -2362,9 +2359,9 @@
         <v>72</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="2" t="s">
         <v>118</v>
       </c>
@@ -2380,10 +2377,10 @@
         <v>80</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
@@ -2396,10 +2393,10 @@
         <v>83</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
@@ -2412,9 +2409,9 @@
         <v>86</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2428,9 +2425,9 @@
         <v>90</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2444,9 +2441,9 @@
         <v>94</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2460,9 +2457,9 @@
         <v>97</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2476,9 +2473,9 @@
         <v>100</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,9 +2487,9 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,13 +2501,13 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="14" t="n">
         <f aca="false">SUM(E2:E28)</f>
         <v>0.595667870036101</v>
       </c>
@@ -2575,7 +2572,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2602,7 +2599,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2611,7 +2608,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2620,7 +2617,7 @@
         <v>124</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2629,7 +2626,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2638,7 +2635,7 @@
         <v>128</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2668,7 +2665,7 @@
         <v>133</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2677,7 +2674,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2686,7 +2683,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2695,7 +2692,7 @@
         <v>139</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2704,7 +2701,7 @@
         <v>141</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2818,7 +2815,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2827,7 +2824,7 @@
         <v>122</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2836,21 +2833,21 @@
         <v>124</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="15"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="15"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2878,35 +2875,35 @@
         <v>133</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -3018,7 +3015,7 @@
         <v>156</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3027,7 +3024,7 @@
         <v>158</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3036,7 +3033,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3045,7 +3042,7 @@
         <v>162</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3054,7 +3051,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3070,7 +3067,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3079,7 +3076,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3088,14 +3085,14 @@
         <v>171</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3104,7 +3101,7 @@
         <v>174</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3113,7 +3110,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>
@@ -3168,7 +3165,7 @@
         <v>156</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3177,7 +3174,7 @@
         <v>158</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3186,7 +3183,7 @@
         <v>160</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3195,7 +3192,7 @@
         <v>162</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3204,7 +3201,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3220,7 +3217,7 @@
         <v>167</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3229,7 +3226,7 @@
         <v>169</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3238,14 +3235,14 @@
         <v>171</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3254,7 +3251,7 @@
         <v>174</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3263,7 +3260,7 @@
         <v>176</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1"/>
